--- a/dumps/Stocks/Tata Steel Ltd.xlsx
+++ b/dumps/Stocks/Tata Steel Ltd.xlsx
@@ -8,11 +8,11 @@
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Trading History'!$A$4:$AD$23</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_20F3058F_F6E2_4ED2_A9FA_CDD96446A88D_.wvu.FilterData">'Trading History'!$A$4:$AO$86</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_AF32D46E_F589_4EAB_9823_ED9289BF8A32_.wvu.FilterData">'Trading History'!$A$4:$AO$86</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{20F3058F-F6E2-4ED2-A9FA-CDD96446A88D}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AF32D46E-F589-4EAB-9823-ED9289BF8A32}" name="Filter 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -890,8 +890,8 @@
         <v>2</v>
       </c>
       <c r="C2" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE($C$1, ""price"")"),196.51)</f>
-        <v>196.51</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE($C$1, ""price"")"),207.6)</f>
+        <v>207.6</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="2" t="s">
@@ -922,8 +922,8 @@
         <v>4</v>
       </c>
       <c r="C3" s="4">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE($C$1, ""high52"")"),202.99)</f>
-        <v>202.99</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE($C$1, ""high52"")"),211.1)</f>
+        <v>211.1</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C9" s="5">
         <f>IFERROR(Index!C10/(Index!C8*Index!$C$2), 0)</f>
-        <v>0.3693326121</v>
+        <v>0.4022750078</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="20" t="s">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="I9" s="5">
         <f>IFERROR(Index!I10/(Index!I8*Index!$C$2), 0)</f>
-        <v>0.3693326121</v>
+        <v>0.4022750078</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="22" t="s">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="C10" s="23">
         <f>SUM('Trading History'!$L$4:$L1004)</f>
-        <v>22499.041</v>
+        <v>25888.8104</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="20" t="s">
@@ -1182,7 +1182,7 @@
       </c>
       <c r="I10" s="23">
         <f>SUM('Trading History'!$T$4:$T1004)</f>
-        <v>22499.041</v>
+        <v>25888.8104</v>
       </c>
       <c r="J10" s="8"/>
       <c r="K10" s="22" t="s">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="C12" s="23">
         <f>SUM('Trading History'!$M$4:$M1004)</f>
-        <v>60598.641</v>
+        <v>63988.4104</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="20" t="s">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="I12" s="23">
         <f>SUM('Trading History'!$U$4:$U1004)</f>
-        <v>60598.641</v>
+        <v>63988.4104</v>
       </c>
       <c r="J12" s="8"/>
       <c r="K12" s="22" t="s">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C15" s="14">
         <f>SUMIFS('Trading History'!$N$4:$N1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A15))</f>
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="15" t="s">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="I15" s="14">
         <f>SUMIFS('Trading History'!$V$4:$V1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A15))</f>
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="17" t="s">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C16" s="5">
         <f>IFERROR(Index!C17/(Index!C15*Index!$C$2), 0)</f>
-        <v>0.4357245942</v>
+        <v>0.4549430597</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="20" t="s">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="I16" s="5">
         <f>IFERROR(Index!I17/(Index!I15*Index!$C$2), 0)</f>
-        <v>0.4357245942</v>
+        <v>0.4549430597</v>
       </c>
       <c r="J16" s="8"/>
       <c r="K16" s="22" t="s">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="C17" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A15))</f>
-        <v>15412.3632</v>
+        <v>18889.23584</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="20" t="s">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="I17" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A15))</f>
-        <v>15412.3632</v>
+        <v>18889.23584</v>
       </c>
       <c r="J17" s="8"/>
       <c r="K17" s="22" t="s">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="C18" s="23">
         <f>Index!C19-Index!C17</f>
-        <v>19740.6</v>
+        <v>22362.56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="20" t="s">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="I18" s="23">
         <f>Index!I19-Index!I17</f>
-        <v>19740.6</v>
+        <v>22362.56</v>
       </c>
       <c r="J18" s="8"/>
       <c r="K18" s="22" t="s">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="C19" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A15))</f>
-        <v>35152.9632</v>
+        <v>41251.79584</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="20" t="s">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="I19" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A15))</f>
-        <v>35152.9632</v>
+        <v>41251.79584</v>
       </c>
       <c r="J19" s="8"/>
       <c r="K19" s="22" t="s">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="C22" s="14">
         <f>SUMIFS('Trading History'!$N$4:$N1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A22))</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="15" t="s">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="I22" s="14">
         <f>SUMIFS('Trading History'!$V$4:$V1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A22))</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="17" t="s">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="C23" s="5">
         <f>IFERROR(Index!C24/(Index!C22*Index!$C$2), 0)</f>
-        <v>0.4249729744</v>
+        <v>0.4492230113</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="20" t="s">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="I23" s="5">
         <f>IFERROR(Index!I24/(Index!I22*Index!$C$2), 0)</f>
-        <v>0.4249729744</v>
+        <v>0.4492230113</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="22" t="s">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="C24" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A22))</f>
-        <v>16702.28784</v>
+        <v>19584.3264</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="20" t="s">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="I24" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A22))</f>
-        <v>16702.28784</v>
+        <v>19584.3264</v>
       </c>
       <c r="J24" s="8"/>
       <c r="K24" s="22" t="s">
@@ -1787,7 +1787,7 @@
       </c>
       <c r="C25" s="23">
         <f>Index!C26-Index!C24</f>
-        <v>22362.56</v>
+        <v>23733.6</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="20" t="s">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="I25" s="23">
         <f>Index!I26-Index!I24</f>
-        <v>22362.56</v>
+        <v>23733.6</v>
       </c>
       <c r="J25" s="8"/>
       <c r="K25" s="22" t="s">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="C26" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A22))</f>
-        <v>39064.84784</v>
+        <v>43317.9264</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="20" t="s">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="I26" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A22))</f>
-        <v>39064.84784</v>
+        <v>43317.9264</v>
       </c>
       <c r="J26" s="8"/>
       <c r="K26" s="22" t="s">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="C29" s="14">
         <f>SUMIFS('Trading History'!$N$4:$N1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A29))</f>
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="15" t="s">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="I29" s="14">
         <f>SUMIFS('Trading History'!$V$4:$V1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A29))</f>
-        <v>210</v>
+        <v>310</v>
       </c>
       <c r="J29" s="8"/>
       <c r="K29" s="17" t="s">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="C30" s="5">
         <f>IFERROR(Index!C31/(Index!C29*Index!$C$2), 0)</f>
-        <v>0.4189301162</v>
+        <v>0.4022750078</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="20" t="s">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="I30" s="5">
         <f>IFERROR(Index!I31/(Index!I29*Index!$C$2), 0)</f>
-        <v>0.4189301162</v>
+        <v>0.4022750078</v>
       </c>
       <c r="J30" s="8"/>
       <c r="K30" s="22" t="s">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="C31" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A29))</f>
-        <v>17288.031</v>
+        <v>25888.8104</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="20" t="s">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="I31" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A29))</f>
-        <v>17288.031</v>
+        <v>25888.8104</v>
       </c>
       <c r="J31" s="8"/>
       <c r="K31" s="22" t="s">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C32" s="23">
         <f>Index!C33-Index!C31</f>
-        <v>23733.6</v>
+        <v>38099.6</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="20" t="s">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="I32" s="23">
         <f>Index!I33-Index!I31</f>
-        <v>23733.6</v>
+        <v>38099.6</v>
       </c>
       <c r="J32" s="8"/>
       <c r="K32" s="22" t="s">
@@ -2125,7 +2125,7 @@
       </c>
       <c r="C33" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A29))</f>
-        <v>41021.631</v>
+        <v>63988.4104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="20" t="s">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="I33" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A29))</f>
-        <v>41021.631</v>
+        <v>63988.4104</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="22" t="s">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="C37" s="5">
         <f>IFERROR(Index!C38/(Index!C36*Index!$C$2), 0)</f>
-        <v>0.3693326121</v>
+        <v>0.4022750078</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="20" t="s">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="I37" s="5">
         <f>IFERROR(Index!I38/(Index!I36*Index!$C$2), 0)</f>
-        <v>0.3693326121</v>
+        <v>0.4022750078</v>
       </c>
       <c r="J37" s="8"/>
       <c r="K37" s="22" t="s">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="C38" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A36))</f>
-        <v>22499.041</v>
+        <v>25888.8104</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="20" t="s">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="I38" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A36))</f>
-        <v>22499.041</v>
+        <v>25888.8104</v>
       </c>
       <c r="J38" s="8"/>
       <c r="K38" s="22" t="s">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="C40" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A36))</f>
-        <v>60598.641</v>
+        <v>63988.4104</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="20" t="s">
@@ -2432,7 +2432,7 @@
       </c>
       <c r="I40" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A36))</f>
-        <v>60598.641</v>
+        <v>63988.4104</v>
       </c>
       <c r="J40" s="8"/>
       <c r="K40" s="22" t="s">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="C44" s="5">
         <f>IFERROR(Index!C45/(Index!C43*Index!$C$2), 0)</f>
-        <v>0.3693326121</v>
+        <v>0.4022750078</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="20" t="s">
@@ -2582,7 +2582,7 @@
       </c>
       <c r="I44" s="5">
         <f>IFERROR(Index!I45/(Index!I43*Index!$C$2), 0)</f>
-        <v>0.3693326121</v>
+        <v>0.4022750078</v>
       </c>
       <c r="J44" s="8"/>
       <c r="K44" s="22" t="s">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="C45" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A43))</f>
-        <v>22499.041</v>
+        <v>25888.8104</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="20" t="s">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="I45" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A43))</f>
-        <v>22499.041</v>
+        <v>25888.8104</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="22" t="s">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C47" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A43))</f>
-        <v>60598.641</v>
+        <v>63988.4104</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="20" t="s">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="I47" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A43))</f>
-        <v>60598.641</v>
+        <v>63988.4104</v>
       </c>
       <c r="J47" s="8"/>
       <c r="K47" s="22" t="s">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="C51" s="5">
         <f>IFERROR(Index!C52/(Index!C50*Index!$C$2), 0)</f>
-        <v>0.3693326121</v>
+        <v>0.4022750078</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="20" t="s">
@@ -2873,7 +2873,7 @@
       </c>
       <c r="I51" s="5">
         <f>IFERROR(Index!I52/(Index!I50*Index!$C$2), 0)</f>
-        <v>0.3693326121</v>
+        <v>0.4022750078</v>
       </c>
       <c r="J51" s="8"/>
       <c r="K51" s="22" t="s">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="C52" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A50))</f>
-        <v>22499.041</v>
+        <v>25888.8104</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="20" t="s">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="I52" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A50))</f>
-        <v>22499.041</v>
+        <v>25888.8104</v>
       </c>
       <c r="J52" s="8"/>
       <c r="K52" s="22" t="s">
@@ -2998,7 +2998,7 @@
       </c>
       <c r="C54" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A50))</f>
-        <v>60598.641</v>
+        <v>63988.4104</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="20" t="s">
@@ -3014,7 +3014,7 @@
       </c>
       <c r="I54" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A50))</f>
-        <v>60598.641</v>
+        <v>63988.4104</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="22" t="s">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="C58" s="5">
         <f>IFERROR(Index!C59/(Index!C57*Index!$C$2), 0)</f>
-        <v>0.3693326121</v>
+        <v>0.4022750078</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="20" t="s">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="I58" s="5">
         <f>IFERROR(Index!I59/(Index!I57*Index!$C$2), 0)</f>
-        <v>0.3693326121</v>
+        <v>0.4022750078</v>
       </c>
       <c r="J58" s="8"/>
       <c r="K58" s="22" t="s">
@@ -3195,7 +3195,7 @@
       </c>
       <c r="C59" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A57))</f>
-        <v>22499.041</v>
+        <v>25888.8104</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="20" t="s">
@@ -3211,7 +3211,7 @@
       </c>
       <c r="I59" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A57))</f>
-        <v>22499.041</v>
+        <v>25888.8104</v>
       </c>
       <c r="J59" s="8"/>
       <c r="K59" s="22" t="s">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="C61" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A57))</f>
-        <v>60598.641</v>
+        <v>63988.4104</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="20" t="s">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="I61" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A57))</f>
-        <v>60598.641</v>
+        <v>63988.4104</v>
       </c>
       <c r="J61" s="8"/>
       <c r="K61" s="22" t="s">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="C65" s="5">
         <f>IFERROR(Index!C66/(Index!C64*Index!$C$2), 0)</f>
-        <v>0.3693326121</v>
+        <v>0.4022750078</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="20" t="s">
@@ -3455,7 +3455,7 @@
       </c>
       <c r="I65" s="5">
         <f>IFERROR(Index!I66/(Index!I64*Index!$C$2), 0)</f>
-        <v>0.3693326121</v>
+        <v>0.4022750078</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="22" t="s">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="C66" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A64))</f>
-        <v>22499.041</v>
+        <v>25888.8104</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="20" t="s">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="I66" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A64))</f>
-        <v>22499.041</v>
+        <v>25888.8104</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="22" t="s">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="C68" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A64))</f>
-        <v>60598.641</v>
+        <v>63988.4104</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="20" t="s">
@@ -3596,7 +3596,7 @@
       </c>
       <c r="I68" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A64))</f>
-        <v>60598.641</v>
+        <v>63988.4104</v>
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="22" t="s">
@@ -3730,7 +3730,7 @@
       </c>
       <c r="C72" s="5">
         <f>IFERROR(Index!C73/(Index!C71*Index!$C$2), 0)</f>
-        <v>0.3693326121</v>
+        <v>0.4022750078</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="20" t="s">
@@ -3746,7 +3746,7 @@
       </c>
       <c r="I72" s="5">
         <f>IFERROR(Index!I73/(Index!I71*Index!$C$2), 0)</f>
-        <v>0.3693326121</v>
+        <v>0.4022750078</v>
       </c>
       <c r="J72" s="8"/>
       <c r="K72" s="22" t="s">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="C73" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A71))</f>
-        <v>22499.041</v>
+        <v>25888.8104</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="20" t="s">
@@ -3793,7 +3793,7 @@
       </c>
       <c r="I73" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A71))</f>
-        <v>22499.041</v>
+        <v>25888.8104</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="22" t="s">
@@ -3871,7 +3871,7 @@
       </c>
       <c r="C75" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A71))</f>
-        <v>60598.641</v>
+        <v>63988.4104</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="20" t="s">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="I75" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A71))</f>
-        <v>60598.641</v>
+        <v>63988.4104</v>
       </c>
       <c r="J75" s="8"/>
       <c r="K75" s="22" t="s">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="C79" s="5">
         <f>IFERROR(Index!C80/(Index!C78*Index!$C$2), 0)</f>
-        <v>0.3693326121</v>
+        <v>0.4022750078</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="20" t="s">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="I79" s="5">
         <f>IFERROR(Index!I80/(Index!I78*Index!$C$2), 0)</f>
-        <v>0.3693326121</v>
+        <v>0.4022750078</v>
       </c>
       <c r="J79" s="8"/>
       <c r="K79" s="22" t="s">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="C80" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A78))</f>
-        <v>22499.041</v>
+        <v>25888.8104</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="20" t="s">
@@ -4084,7 +4084,7 @@
       </c>
       <c r="I80" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A78))</f>
-        <v>22499.041</v>
+        <v>25888.8104</v>
       </c>
       <c r="J80" s="8"/>
       <c r="K80" s="22" t="s">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="C82" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A78))</f>
-        <v>60598.641</v>
+        <v>63988.4104</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="20" t="s">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="I82" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A78))</f>
-        <v>60598.641</v>
+        <v>63988.4104</v>
       </c>
       <c r="J82" s="8"/>
       <c r="K82" s="22" t="s">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="C86" s="5">
         <f>IFERROR(Index!C87/(Index!C85*Index!$C$2), 0)</f>
-        <v>0.3693326121</v>
+        <v>0.4022750078</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="20" t="s">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="I86" s="5">
         <f>IFERROR(Index!I87/(Index!I85*Index!$C$2), 0)</f>
-        <v>0.3693326121</v>
+        <v>0.4022750078</v>
       </c>
       <c r="J86" s="8"/>
       <c r="K86" s="22" t="s">
@@ -4359,7 +4359,7 @@
       </c>
       <c r="C87" s="23">
         <f>SUMIFS('Trading History'!$L$4:$L1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A85))</f>
-        <v>22499.041</v>
+        <v>25888.8104</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="20" t="s">
@@ -4375,7 +4375,7 @@
       </c>
       <c r="I87" s="23">
         <f>SUMIFS('Trading History'!$T$4:$T1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A85))</f>
-        <v>22499.041</v>
+        <v>25888.8104</v>
       </c>
       <c r="J87" s="8"/>
       <c r="K87" s="22" t="s">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="C89" s="23">
         <f>SUMIFS('Trading History'!$M$4:$M1004, 'Trading History'!$K$4:$K1004, CONCAT("&gt;", $A85))</f>
-        <v>60598.641</v>
+        <v>63988.4104</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="20" t="s">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="I89" s="23">
         <f>SUMIFS('Trading History'!$U$4:$U1004, 'Trading History'!$S$4:$S1004, CONCAT("&gt;", $A85))</f>
-        <v>60598.641</v>
+        <v>63988.4104</v>
       </c>
       <c r="J89" s="8"/>
       <c r="K89" s="22" t="s">
@@ -29525,7 +29525,7 @@
       </c>
       <c r="J5" s="64">
         <f>Index!$C$2</f>
-        <v>196.51</v>
+        <v>207.6</v>
       </c>
       <c r="K5" s="65" t="str">
         <f t="shared" ref="K5:K23" si="1">IF(AND( C5="Buy", ISBLANK(W5), B5&lt;&gt;"DIV"), L5/sum(F5:I5), "")</f>
@@ -29622,7 +29622,7 @@
       </c>
       <c r="J6" s="64">
         <f>Index!$C$2</f>
-        <v>196.51</v>
+        <v>207.6</v>
       </c>
       <c r="K6" s="65" t="str">
         <f t="shared" si="1"/>
@@ -29719,7 +29719,7 @@
       </c>
       <c r="J7" s="64">
         <f>Index!$C$2</f>
-        <v>196.51</v>
+        <v>207.6</v>
       </c>
       <c r="K7" s="65" t="str">
         <f t="shared" si="1"/>
@@ -29816,7 +29816,7 @@
       </c>
       <c r="J8" s="64">
         <f>Index!$C$2</f>
-        <v>196.51</v>
+        <v>207.6</v>
       </c>
       <c r="K8" s="65" t="str">
         <f t="shared" si="1"/>
@@ -29913,19 +29913,19 @@
       </c>
       <c r="J9" s="64">
         <f>Index!$C$2</f>
-        <v>196.51</v>
+        <v>207.6</v>
       </c>
       <c r="K9" s="65">
         <f t="shared" si="1"/>
-        <v>0.3602166964</v>
+        <v>0.4358042681</v>
       </c>
       <c r="L9" s="66">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v>5211.01</v>
+        <v>6304.484</v>
       </c>
       <c r="M9" s="67">
         <f t="shared" si="2"/>
-        <v>19577.01</v>
+        <v>20670.484</v>
       </c>
       <c r="N9" s="68">
         <f t="shared" si="3"/>
@@ -29949,15 +29949,15 @@
       </c>
       <c r="S9" s="69">
         <f t="shared" si="7"/>
-        <v>0.3602166964</v>
+        <v>0.4358042681</v>
       </c>
       <c r="T9" s="67">
         <f>IF(AND( C9="Buy", ISBLANK(W9), B9&lt;&gt;"DIV", NOW()-A9 &gt; 365), (1-Index!$F$2*2)*((J9*D9)-(E9*D9)), "")</f>
-        <v>5211.01</v>
+        <v>6304.484</v>
       </c>
       <c r="U9" s="67">
         <f t="shared" si="8"/>
-        <v>19577.01</v>
+        <v>20670.484</v>
       </c>
       <c r="V9" s="67">
         <f t="shared" si="9"/>
@@ -30010,19 +30010,19 @@
       </c>
       <c r="J10" s="64">
         <f>Index!$C$2</f>
-        <v>196.51</v>
+        <v>207.6</v>
       </c>
       <c r="K10" s="65">
         <f t="shared" si="1"/>
-        <v>0.4708225638</v>
+        <v>0.5522622218</v>
       </c>
       <c r="L10" s="66">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
-        <v>632.16404</v>
+        <v>741.51144</v>
       </c>
       <c r="M10" s="67">
         <f t="shared" si="2"/>
-        <v>1956.12404</v>
+        <v>2065.47144</v>
       </c>
       <c r="N10" s="68">
         <f t="shared" si="3"/>
@@ -30046,15 +30046,15 @@
       </c>
       <c r="S10" s="69">
         <f t="shared" si="7"/>
-        <v>0.4708225638</v>
+        <v>0.5522622218</v>
       </c>
       <c r="T10" s="67">
         <f>IF(AND( C10="Buy", ISBLANK(W10), B10&lt;&gt;"DIV", NOW()-A10 &gt; 365), (1-Index!$F$2*2)*((J10*D10)-(E10*D10)), "")</f>
-        <v>632.16404</v>
+        <v>741.51144</v>
       </c>
       <c r="U10" s="67">
         <f t="shared" si="8"/>
-        <v>1956.12404</v>
+        <v>2065.47144</v>
       </c>
       <c r="V10" s="67">
         <f t="shared" si="9"/>
@@ -30107,19 +30107,19 @@
       </c>
       <c r="J11" s="64">
         <f>Index!$C$2</f>
-        <v>196.51</v>
+        <v>207.6</v>
       </c>
       <c r="K11" s="65">
         <f t="shared" si="1"/>
-        <v>0.4212403705</v>
+        <v>0.4998781463</v>
       </c>
       <c r="L11" s="66">
         <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
-        <v>585.74316</v>
+        <v>695.09056</v>
       </c>
       <c r="M11" s="67">
         <f t="shared" si="2"/>
-        <v>1956.78316</v>
+        <v>2066.13056</v>
       </c>
       <c r="N11" s="68">
         <f t="shared" si="3"/>
@@ -30143,15 +30143,15 @@
       </c>
       <c r="S11" s="69">
         <f t="shared" si="7"/>
-        <v>0.4212403705</v>
+        <v>0.4998781463</v>
       </c>
       <c r="T11" s="67">
         <f>IF(AND( C11="Buy", ISBLANK(W11), B11&lt;&gt;"DIV", NOW()-A11 &gt; 365), (1-Index!$F$2*2)*((J11*D11)-(E11*D11)), "")</f>
-        <v>585.74316</v>
+        <v>695.09056</v>
       </c>
       <c r="U11" s="67">
         <f t="shared" si="8"/>
-        <v>1956.78316</v>
+        <v>2066.13056</v>
       </c>
       <c r="V11" s="67">
         <f t="shared" si="9"/>
@@ -30204,19 +30204,19 @@
       </c>
       <c r="J12" s="64">
         <f>Index!$C$2</f>
-        <v>196.51</v>
+        <v>207.6</v>
       </c>
       <c r="K12" s="65">
         <f t="shared" si="1"/>
-        <v>0.5356640518</v>
+        <v>0.6207619537</v>
       </c>
       <c r="L12" s="66">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v>688.30688</v>
+        <v>797.65428</v>
       </c>
       <c r="M12" s="67">
         <f t="shared" si="2"/>
-        <v>1955.32688</v>
+        <v>2064.67428</v>
       </c>
       <c r="N12" s="68">
         <f t="shared" si="3"/>
@@ -30240,15 +30240,15 @@
       </c>
       <c r="S12" s="69">
         <f t="shared" si="7"/>
-        <v>0.5356640518</v>
+        <v>0.6207619537</v>
       </c>
       <c r="T12" s="67">
         <f>IF(AND( C12="Buy", ISBLANK(W12), B12&lt;&gt;"DIV", NOW()-A12 &gt; 365), (1-Index!$F$2*2)*((J12*D12)-(E12*D12)), "")</f>
-        <v>688.30688</v>
+        <v>797.65428</v>
       </c>
       <c r="U12" s="67">
         <f t="shared" si="8"/>
-        <v>1955.32688</v>
+        <v>2064.67428</v>
       </c>
       <c r="V12" s="67">
         <f t="shared" si="9"/>
@@ -30301,19 +30301,19 @@
       </c>
       <c r="J13" s="64">
         <f>Index!$C$2</f>
-        <v>196.51</v>
+        <v>207.6</v>
       </c>
       <c r="K13" s="65">
         <f t="shared" si="1"/>
-        <v>0.4996662109</v>
+        <v>0.5827316925</v>
       </c>
       <c r="L13" s="66">
         <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
-        <v>657.7606</v>
+        <v>767.108</v>
       </c>
       <c r="M13" s="67">
         <f t="shared" si="2"/>
-        <v>1955.7606</v>
+        <v>2065.108</v>
       </c>
       <c r="N13" s="68">
         <f t="shared" si="3"/>
@@ -30337,15 +30337,15 @@
       </c>
       <c r="S13" s="69">
         <f t="shared" si="7"/>
-        <v>0.4996662109</v>
+        <v>0.5827316925</v>
       </c>
       <c r="T13" s="67">
         <f>IF(AND( C13="Buy", ISBLANK(W13), B13&lt;&gt;"DIV", NOW()-A13 &gt; 365), (1-Index!$F$2*2)*((J13*D13)-(E13*D13)), "")</f>
-        <v>657.7606</v>
+        <v>767.108</v>
       </c>
       <c r="U13" s="67">
         <f t="shared" si="8"/>
-        <v>1955.7606</v>
+        <v>2065.108</v>
       </c>
       <c r="V13" s="67">
         <f t="shared" si="9"/>
@@ -30398,19 +30398,19 @@
       </c>
       <c r="J14" s="64">
         <f>Index!$C$2</f>
-        <v>196.51</v>
+        <v>207.6</v>
       </c>
       <c r="K14" s="65">
         <f t="shared" si="1"/>
-        <v>0.6218573427</v>
+        <v>0.7118181818</v>
       </c>
       <c r="L14" s="66">
         <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
-        <v>755.8676</v>
+        <v>865.215</v>
       </c>
       <c r="M14" s="67">
         <f t="shared" si="2"/>
-        <v>1954.3676</v>
+        <v>2063.715</v>
       </c>
       <c r="N14" s="68">
         <f t="shared" si="3"/>
@@ -30434,15 +30434,15 @@
       </c>
       <c r="S14" s="69">
         <f t="shared" si="7"/>
-        <v>0.6218573427</v>
+        <v>0.7118181818</v>
       </c>
       <c r="T14" s="67">
         <f>IF(AND( C14="Buy", ISBLANK(W14), B14&lt;&gt;"DIV", NOW()-A14 &gt; 365), (1-Index!$F$2*2)*((J14*D14)-(E14*D14)), "")</f>
-        <v>755.8676</v>
+        <v>865.215</v>
       </c>
       <c r="U14" s="67">
         <f t="shared" si="8"/>
-        <v>1954.3676</v>
+        <v>2063.715</v>
       </c>
       <c r="V14" s="67">
         <f t="shared" si="9"/>
@@ -30495,19 +30495,19 @@
       </c>
       <c r="J15" s="64">
         <f>Index!$C$2</f>
-        <v>196.51</v>
+        <v>207.6</v>
       </c>
       <c r="K15" s="65">
         <f t="shared" si="1"/>
-        <v>0.6804611054</v>
+        <v>0.7737291027</v>
       </c>
       <c r="L15" s="66">
         <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
-        <v>1595.5452</v>
+        <v>1814.24</v>
       </c>
       <c r="M15" s="67">
         <f t="shared" si="2"/>
-        <v>3907.5452</v>
+        <v>4126.24</v>
       </c>
       <c r="N15" s="68">
         <f t="shared" si="3"/>
@@ -30531,15 +30531,15 @@
       </c>
       <c r="S15" s="69">
         <f t="shared" si="7"/>
-        <v>0.6804611054</v>
+        <v>0.7737291027</v>
       </c>
       <c r="T15" s="67">
         <f>IF(AND( C15="Buy", ISBLANK(W15), B15&lt;&gt;"DIV", NOW()-A15 &gt; 365), (1-Index!$F$2*2)*((J15*D15)-(E15*D15)), "")</f>
-        <v>1595.5452</v>
+        <v>1814.24</v>
       </c>
       <c r="U15" s="67">
         <f t="shared" si="8"/>
-        <v>3907.5452</v>
+        <v>4126.24</v>
       </c>
       <c r="V15" s="67">
         <f t="shared" si="9"/>
@@ -30590,7 +30590,7 @@
       </c>
       <c r="J16" s="64">
         <f>Index!$C$2</f>
-        <v>196.51</v>
+        <v>207.6</v>
       </c>
       <c r="K16" s="65" t="str">
         <f t="shared" si="1"/>
@@ -30685,7 +30685,7 @@
       </c>
       <c r="J17" s="64">
         <f>Index!$C$2</f>
-        <v>196.51</v>
+        <v>207.6</v>
       </c>
       <c r="K17" s="65" t="str">
         <f t="shared" si="1"/>
@@ -30782,19 +30782,19 @@
       </c>
       <c r="J18" s="64">
         <f>Index!$C$2</f>
-        <v>196.51</v>
+        <v>207.6</v>
       </c>
       <c r="K18" s="65">
         <f t="shared" si="1"/>
-        <v>0.8114949186</v>
+        <v>0.9121534723</v>
       </c>
       <c r="L18" s="66">
         <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v>881.54316</v>
+        <v>990.89056</v>
       </c>
       <c r="M18" s="67">
         <f t="shared" si="2"/>
-        <v>1952.58316</v>
+        <v>2061.93056</v>
       </c>
       <c r="N18" s="68">
         <f t="shared" si="3"/>
@@ -30818,15 +30818,15 @@
       </c>
       <c r="S18" s="69">
         <f t="shared" si="7"/>
-        <v>0.8114949186</v>
+        <v>0.9121534723</v>
       </c>
       <c r="T18" s="67">
         <f>IF(AND( C18="Buy", ISBLANK(W18), B18&lt;&gt;"DIV", NOW()-A18 &gt; 365), (1-Index!$F$2*2)*((J18*D18)-(E18*D18)), "")</f>
-        <v>881.54316</v>
+        <v>990.89056</v>
       </c>
       <c r="U18" s="67">
         <f t="shared" si="8"/>
-        <v>1952.58316</v>
+        <v>2061.93056</v>
       </c>
       <c r="V18" s="67">
         <f t="shared" si="9"/>
@@ -30876,19 +30876,19 @@
       </c>
       <c r="J19" s="64">
         <f>Index!$C$2</f>
-        <v>196.51</v>
+        <v>207.6</v>
       </c>
       <c r="K19" s="65">
         <f t="shared" si="1"/>
-        <v>0.6028013396</v>
+        <v>0.6916843218</v>
       </c>
       <c r="L19" s="66">
         <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v>741.59032</v>
+        <v>850.93772</v>
       </c>
       <c r="M19" s="67">
         <f t="shared" si="2"/>
-        <v>1954.57032</v>
+        <v>2063.91772</v>
       </c>
       <c r="N19" s="68">
         <f t="shared" si="3"/>
@@ -30912,15 +30912,15 @@
       </c>
       <c r="S19" s="69">
         <f t="shared" si="7"/>
-        <v>0.6028013396</v>
+        <v>0.6916843218</v>
       </c>
       <c r="T19" s="67">
         <f>IF(AND( C19="Buy", ISBLANK(W19), B19&lt;&gt;"DIV", NOW()-A19 &gt; 365), (1-Index!$F$2*2)*((J19*D19)-(E19*D19)), "")</f>
-        <v>741.59032</v>
+        <v>850.93772</v>
       </c>
       <c r="U19" s="67">
         <f t="shared" si="8"/>
-        <v>1954.57032</v>
+        <v>2063.91772</v>
       </c>
       <c r="V19" s="67">
         <f t="shared" si="9"/>
@@ -30970,19 +30970,19 @@
       </c>
       <c r="J20" s="64">
         <f>Index!$C$2</f>
-        <v>196.51</v>
+        <v>207.6</v>
       </c>
       <c r="K20" s="65">
         <f t="shared" si="1"/>
-        <v>0.7404739466</v>
+        <v>0.8371277965</v>
       </c>
       <c r="L20" s="66">
         <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
-        <v>1675.44078</v>
+        <v>1894.13558</v>
       </c>
       <c r="M20" s="67">
         <f t="shared" si="2"/>
-        <v>3906.41078</v>
+        <v>4125.10558</v>
       </c>
       <c r="N20" s="68">
         <f t="shared" si="3"/>
@@ -31006,15 +31006,15 @@
       </c>
       <c r="S20" s="69">
         <f t="shared" si="7"/>
-        <v>0.7404739466</v>
+        <v>0.8371277965</v>
       </c>
       <c r="T20" s="67">
         <f>IF(AND( C20="Buy", ISBLANK(W20), B20&lt;&gt;"DIV", NOW()-A20 &gt; 365), (1-Index!$F$2*2)*((J20*D20)-(E20*D20)), "")</f>
-        <v>1675.44078</v>
+        <v>1894.13558</v>
       </c>
       <c r="U20" s="67">
         <f t="shared" si="8"/>
-        <v>3906.41078</v>
+        <v>4125.10558</v>
       </c>
       <c r="V20" s="67">
         <f t="shared" si="9"/>
@@ -31064,19 +31064,19 @@
       </c>
       <c r="J21" s="64">
         <f>Index!$C$2</f>
-        <v>196.51</v>
+        <v>207.6</v>
       </c>
       <c r="K21" s="65">
         <f t="shared" si="1"/>
-        <v>0.8318508594</v>
+        <v>0.9336621851</v>
       </c>
       <c r="L21" s="66">
         <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
-        <v>2680.27338</v>
+        <v>3008.31558</v>
       </c>
       <c r="M21" s="67">
         <f t="shared" si="2"/>
-        <v>5857.24338</v>
+        <v>6185.28558</v>
       </c>
       <c r="N21" s="68">
         <f t="shared" si="3"/>
@@ -31100,15 +31100,15 @@
       </c>
       <c r="S21" s="69">
         <f t="shared" si="7"/>
-        <v>0.8318508594</v>
+        <v>0.9336621851</v>
       </c>
       <c r="T21" s="67">
         <f>IF(AND( C21="Buy", ISBLANK(W21), B21&lt;&gt;"DIV", NOW()-A21 &gt; 365), (1-Index!$F$2*2)*((J21*D21)-(E21*D21)), "")</f>
-        <v>2680.27338</v>
+        <v>3008.31558</v>
       </c>
       <c r="U21" s="67">
         <f t="shared" si="8"/>
-        <v>5857.24338</v>
+        <v>6185.28558</v>
       </c>
       <c r="V21" s="67">
         <f t="shared" si="9"/>
@@ -31158,19 +31158,19 @@
       </c>
       <c r="J22" s="64">
         <f>Index!$C$2</f>
-        <v>196.51</v>
+        <v>207.6</v>
       </c>
       <c r="K22" s="65">
         <f t="shared" si="1"/>
-        <v>0.9279033011</v>
+        <v>1.035142381</v>
       </c>
       <c r="L22" s="66">
         <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
-        <v>1892.29176</v>
+        <v>2110.98656</v>
       </c>
       <c r="M22" s="67">
         <f t="shared" si="2"/>
-        <v>3903.33176</v>
+        <v>4122.02656</v>
       </c>
       <c r="N22" s="68">
         <f t="shared" si="3"/>
@@ -31194,15 +31194,15 @@
       </c>
       <c r="S22" s="69">
         <f t="shared" si="7"/>
-        <v>0.9279033011</v>
+        <v>1.035142381</v>
       </c>
       <c r="T22" s="67">
         <f>IF(AND( C22="Buy", ISBLANK(W22), B22&lt;&gt;"DIV", NOW()-A22 &gt; 365), (1-Index!$F$2*2)*((J22*D22)-(E22*D22)), "")</f>
-        <v>1892.29176</v>
+        <v>2110.98656</v>
       </c>
       <c r="U22" s="67">
         <f t="shared" si="8"/>
-        <v>3903.33176</v>
+        <v>4122.02656</v>
       </c>
       <c r="V22" s="67">
         <f t="shared" si="9"/>
@@ -31252,19 +31252,19 @@
       </c>
       <c r="J23" s="64">
         <f>Index!$C$2</f>
-        <v>196.51</v>
+        <v>207.6</v>
       </c>
       <c r="K23" s="65">
         <f t="shared" si="1"/>
-        <v>0.8437936508</v>
+        <v>0.9462778865</v>
       </c>
       <c r="L23" s="66">
         <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV"), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
-        <v>4501.50412</v>
+        <v>5048.24112</v>
       </c>
       <c r="M23" s="67">
         <f t="shared" si="2"/>
-        <v>9761.58412</v>
+        <v>10308.32112</v>
       </c>
       <c r="N23" s="68">
         <f t="shared" si="3"/>
@@ -31288,15 +31288,15 @@
       </c>
       <c r="S23" s="69">
         <f t="shared" si="7"/>
-        <v>0.8437936508</v>
+        <v>0.9462778865</v>
       </c>
       <c r="T23" s="67">
         <f>IF(AND( C23="Buy", ISBLANK(W23), B23&lt;&gt;"DIV", NOW()-A23 &gt; 365), (1-Index!$F$2*2)*((J23*D23)-(E23*D23)), "")</f>
-        <v>4501.50412</v>
+        <v>5048.24112</v>
       </c>
       <c r="U23" s="67">
         <f t="shared" si="8"/>
-        <v>9761.58412</v>
+        <v>10308.32112</v>
       </c>
       <c r="V23" s="67">
         <f t="shared" si="9"/>
@@ -47061,7 +47061,7 @@
   </sheetData>
   <autoFilter ref="$A$4:$AD$23"/>
   <customSheetViews>
-    <customSheetView guid="{20F3058F-F6E2-4ED2-A9FA-CDD96446A88D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AF32D46E-F589-4EAB-9823-ED9289BF8A32}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$4:$AO$86"/>
     </customSheetView>
   </customSheetViews>
